--- a/Update.xlsx
+++ b/Update.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Turash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup_Turash\MFIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Account Information</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Account Registration</t>
+  </si>
+  <si>
+    <t>Multiple accounts of various types can be opened using 1 CustomerID</t>
+  </si>
+  <si>
+    <t>Nominee</t>
+  </si>
+  <si>
+    <t>max 4 nominees can be added under 1 AccountID</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +534,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +560,9 @@
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -560,31 +574,114 @@
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
